--- a/data/mips/cenarios.xlsx
+++ b/data/mips/cenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7cfd6d076248aa8/Documents/Study/UFV/Mestrado/4º Semestre/ERU 799 - Pesquisa/Estimação/mip-energia/data/mips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7cfd6d076248aa8/Documents/Study/UFV/Mestrado/4º Semestre (2025-2)/ERU 799 - Pesquisa/Estimação/mip-energia/data/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4D361C20488DEA4E38A05D041E53765BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BE4EC0-998F-41C9-BA69-0BC4F17AAEAF}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_AD4D361C20488DEA4E38A05D041E53765BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93BF948F-1ECC-4777-9497-739A2499CF5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,10 @@
     <sheet name="fluxo energia 0412" sheetId="1" r:id="rId3"/>
     <sheet name="demanda 0412" sheetId="2" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -276,6 +280,204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Fluxos Monetários"/>
+      <sheetName val="FM - C1"/>
+      <sheetName val="FM - C2"/>
+      <sheetName val="FM - C3"/>
+      <sheetName val="Fluxos Energia"/>
+      <sheetName val="Energia Demanda Final"/>
+      <sheetName val="Emprego Setorial"/>
+      <sheetName val="Emprego"/>
+      <sheetName val="Fluxos Monetários (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="17">
+          <cell r="D17">
+            <v>72335.83666423877</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>5181.1799382375975</v>
+          </cell>
+          <cell r="H18">
+            <v>58653.978747055175</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>701.33619022676862</v>
+          </cell>
+          <cell r="H19">
+            <v>1658.8078248724096</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>26.3774484024107</v>
+          </cell>
+          <cell r="H20">
+            <v>150.79495476059321</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>0.99072064053320175</v>
+          </cell>
+          <cell r="H21">
+            <v>5.8039526383315101</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>1553.3183672703592</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Fluxos Monetários"/>
+      <sheetName val="FM - C1"/>
+      <sheetName val="FM - C2"/>
+      <sheetName val="FM - C3"/>
+      <sheetName val="Fluxos Energia"/>
+      <sheetName val="Energia Demanda Final"/>
+      <sheetName val="Emprego Setorial"/>
+      <sheetName val="Emprego"/>
+      <sheetName val="Fluxos Monetários (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="17">
+          <cell r="C17">
+            <v>56168.352654942522</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>39138.108129963948</v>
+          </cell>
+          <cell r="N17">
+            <v>22467.341061977011</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>3474</v>
+          </cell>
+          <cell r="F18">
+            <v>39327.706158875641</v>
+          </cell>
+          <cell r="J18">
+            <v>3474</v>
+          </cell>
+          <cell r="N18">
+            <v>21297.664956639092</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>15717.543227951701</v>
+          </cell>
+          <cell r="F19">
+            <v>37175.300601365576</v>
+          </cell>
+          <cell r="J19">
+            <v>15717.543227951701</v>
+          </cell>
+          <cell r="N19">
+            <v>33541.208184590796</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>163.14115901360861</v>
+          </cell>
+          <cell r="F20">
+            <v>932.6475903863211</v>
+          </cell>
+          <cell r="J20">
+            <v>18188.629127934088</v>
+          </cell>
+          <cell r="N20">
+            <v>163.14115901360861</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>6.1274809863913715</v>
+          </cell>
+          <cell r="F21">
+            <v>35.896707893510907</v>
+          </cell>
+          <cell r="J21">
+            <v>957.20235735715107</v>
+          </cell>
+          <cell r="N21">
+            <v>6.1274809863913715</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>1946.3183203126687</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,7 +746,7 @@
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -583,9 +785,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
+        <f>'[1]Fluxos Energia'!$D$17</f>
         <v>72335.83666423877</v>
       </c>
       <c r="E3" s="3">
+        <f>'[1]Fluxos Energia'!$H$17</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -608,10 +812,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
+        <f>'[1]Fluxos Energia'!$D$18</f>
         <v>5181.1799382375975</v>
       </c>
       <c r="E4" s="3">
-        <v>57202.593393769581</v>
+        <f>'[1]Fluxos Energia'!$H$18</f>
+        <v>58653.978747055175</v>
       </c>
       <c r="F4" s="3">
         <v>5181.1799382375975</v>
@@ -633,10 +839,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
+        <f>'[1]Fluxos Energia'!$D$19</f>
         <v>701.33619022676862</v>
       </c>
       <c r="E5" s="3">
-        <v>1699.0902490249575</v>
+        <f>'[1]Fluxos Energia'!$H$19</f>
+        <v>1658.8078248724096</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -658,10 +866,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
+        <f>'[1]Fluxos Energia'!$D$20</f>
         <v>26.3774484024107</v>
       </c>
       <c r="E6" s="3">
-        <v>162.36655222267365</v>
+        <f>'[1]Fluxos Energia'!$H$20</f>
+        <v>150.79495476059321</v>
       </c>
       <c r="F6" s="3">
         <v>6009.3759644244274</v>
@@ -683,10 +893,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
+        <f>'[1]Fluxos Energia'!$D$21</f>
         <v>0.99072064053320175</v>
       </c>
       <c r="E7" s="3">
-        <v>6.249967749604151</v>
+        <f>'[1]Fluxos Energia'!$H$21</f>
+        <v>5.8039526383315101</v>
       </c>
       <c r="F7" s="3">
         <v>315.88537937853448</v>
@@ -708,9 +920,11 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
+        <f>'[1]Fluxos Energia'!$D$22</f>
         <v>1553.3183672703592</v>
       </c>
       <c r="E8" s="3">
+        <f>'[1]Fluxos Energia'!$H$22</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -735,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF606652-479A-4EFF-A7D3-37B9A1A0FED2}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -777,16 +991,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
+        <f>'[2]Fluxos Energia'!$C$17</f>
         <v>56168.352654942522</v>
       </c>
       <c r="E3" s="3">
+        <f>'[2]Fluxos Energia'!$F$17</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>34880.546998719306</v>
+        <f>'[2]Fluxos Energia'!$J$17</f>
+        <v>39138.108129963948</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <f>'[2]Fluxos Energia'!$N$17</f>
+        <v>22467.341061977011</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -802,16 +1020,20 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
+        <f>'[2]Fluxos Energia'!$C$18</f>
         <v>3474</v>
       </c>
       <c r="E4" s="3">
-        <v>38354.546998719306</v>
+        <f>'[2]Fluxos Energia'!$F$18</f>
+        <v>39327.706158875641</v>
       </c>
       <c r="F4" s="3">
+        <f>'[2]Fluxos Energia'!$J$18</f>
         <v>3474</v>
       </c>
       <c r="G4" s="3">
-        <v>39327.706158875641</v>
+        <f>'[2]Fluxos Energia'!$N$18</f>
+        <v>21297.664956639092</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -827,16 +1049,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
+        <f>'[2]Fluxos Energia'!$C$19</f>
         <v>15717.543227951701</v>
       </c>
       <c r="E5" s="3">
-        <v>38078.064142969837</v>
+        <f>'[2]Fluxos Energia'!$F$19</f>
+        <v>37175.300601365576</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f>'[2]Fluxos Energia'!$J$19</f>
+        <v>15717.543227951701</v>
       </c>
       <c r="G5" s="3">
-        <v>37978.508044331254</v>
+        <f>'[2]Fluxos Energia'!$N$19</f>
+        <v>33541.208184590796</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -852,15 +1078,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
+        <f>'[2]Fluxos Energia'!$C$20</f>
         <v>163.14115901360861</v>
       </c>
       <c r="E6" s="3">
-        <v>1004.2164469642076</v>
+        <f>'[2]Fluxos Energia'!$F$20</f>
+        <v>932.6475903863211</v>
       </c>
       <c r="F6" s="3">
-        <v>37167.225003276821</v>
+        <f>'[2]Fluxos Energia'!$J$20</f>
+        <v>18188.629127934088</v>
       </c>
       <c r="G6" s="3">
+        <f>'[2]Fluxos Energia'!$N$20</f>
         <v>163.14115901360861</v>
       </c>
       <c r="H6" s="3"/>
@@ -877,15 +1107,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
+        <f>'[2]Fluxos Energia'!$C$21</f>
         <v>6.1274809863913715</v>
       </c>
       <c r="E7" s="3">
-        <v>38.65525455354161</v>
+        <f>'[2]Fluxos Energia'!$F$21</f>
+        <v>35.896707893510907</v>
       </c>
       <c r="F7" s="3">
-        <v>1953.7108412107709</v>
+        <f>'[2]Fluxos Energia'!$J$21</f>
+        <v>957.20235735715107</v>
       </c>
       <c r="G7" s="3">
+        <f>'[2]Fluxos Energia'!$N$21</f>
         <v>6.1274809863913715</v>
       </c>
       <c r="H7" s="3"/>
@@ -902,15 +1136,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
+        <f>'[2]Fluxos Energia'!$C$22</f>
         <v>1946.3183203126687</v>
       </c>
       <c r="E8" s="3">
+        <f>'[2]Fluxos Energia'!$F$22</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <f>'[2]Fluxos Energia'!$J$22</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <f>'[2]Fluxos Energia'!$N$22</f>
         <v>0</v>
       </c>
       <c r="H8" s="3"/>
@@ -927,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -935,10 +1173,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
+        <f>'[2]Fluxos Energia'!$C$17</f>
         <v>56168.352654942522</v>
       </c>
       <c r="E12" s="3">
-        <v>34880.546998719306</v>
+        <f>'[2]Fluxos Energia'!$N$17</f>
+        <v>22467.341061977011</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -946,10 +1186,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="3">
+        <f>'[2]Fluxos Energia'!$C$18</f>
         <v>3474</v>
       </c>
       <c r="E13" s="3">
-        <v>3474</v>
+        <f>'[2]Fluxos Energia'!$N$18</f>
+        <v>21297.664956639092</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,10 +1199,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="3">
+        <f>'[2]Fluxos Energia'!$C$19</f>
         <v>15717.543227951701</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <f>'[2]Fluxos Energia'!$N$19</f>
+        <v>33541.208184590796</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -968,10 +1212,12 @@
         <v>7</v>
       </c>
       <c r="D15" s="3">
+        <f>'[2]Fluxos Energia'!$C$20</f>
         <v>163.14115901360861</v>
       </c>
       <c r="E15" s="3">
-        <v>37167.225003276821</v>
+        <f>'[2]Fluxos Energia'!$N$20</f>
+        <v>163.14115901360861</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -979,10 +1225,12 @@
         <v>9</v>
       </c>
       <c r="D16" s="3">
+        <f>'[2]Fluxos Energia'!$C$21</f>
         <v>6.1274809863913715</v>
       </c>
       <c r="E16" s="3">
-        <v>1953.7108412107709</v>
+        <f>'[2]Fluxos Energia'!$N$21</f>
+        <v>6.1274809863913715</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,9 +1238,11 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <f>'[2]Fluxos Energia'!$C$22</f>
         <v>1946.3183203126687</v>
       </c>
       <c r="E17" s="3">
+        <f>'[2]Fluxos Energia'!$N$22</f>
         <v>0</v>
       </c>
     </row>
